--- a/data/pca/factorExposure/factorExposure_2011-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009368805709429008</v>
+        <v>0.01547300360578996</v>
       </c>
       <c r="C2">
-        <v>0.0006149629547675058</v>
+        <v>-0.002646215057493883</v>
       </c>
       <c r="D2">
-        <v>0.02851662748386861</v>
+        <v>0.003236598981156811</v>
       </c>
       <c r="E2">
-        <v>0.02361500617570893</v>
+        <v>-0.0168168402041845</v>
       </c>
       <c r="F2">
-        <v>0.008746065466952701</v>
+        <v>-0.004027896057091833</v>
       </c>
       <c r="G2">
-        <v>-0.0143214833653629</v>
+        <v>0.02220038099853216</v>
       </c>
       <c r="H2">
-        <v>-0.0660365304868176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01116170762075143</v>
+      </c>
+      <c r="I2">
+        <v>0.006725574546363138</v>
+      </c>
+      <c r="J2">
+        <v>0.01097366654976025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1095853308030212</v>
+        <v>0.1243316717271393</v>
       </c>
       <c r="C4">
-        <v>-0.01774877988513994</v>
+        <v>-0.05115765454350146</v>
       </c>
       <c r="D4">
-        <v>0.06425457754822944</v>
+        <v>0.009008607862186827</v>
       </c>
       <c r="E4">
-        <v>0.05506079648122768</v>
+        <v>0.0008682134916262964</v>
       </c>
       <c r="F4">
-        <v>0.01083789979525341</v>
+        <v>0.009517006159322147</v>
       </c>
       <c r="G4">
-        <v>-0.03893331136367853</v>
+        <v>-0.01535816175005964</v>
       </c>
       <c r="H4">
-        <v>0.03436426016857764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06193899857607517</v>
+      </c>
+      <c r="I4">
+        <v>-0.08965260106235032</v>
+      </c>
+      <c r="J4">
+        <v>-0.07230006742735173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1271586238520747</v>
+        <v>0.122623420686903</v>
       </c>
       <c r="C6">
-        <v>-0.02148192520572942</v>
+        <v>0.01401987996427244</v>
       </c>
       <c r="D6">
-        <v>-0.04618009159363926</v>
+        <v>0.01651517411557189</v>
       </c>
       <c r="E6">
-        <v>0.03697832236463681</v>
+        <v>-0.01857921486689102</v>
       </c>
       <c r="F6">
-        <v>-0.2327643053242905</v>
+        <v>-0.02562006797642944</v>
       </c>
       <c r="G6">
-        <v>0.1838836400960655</v>
+        <v>-0.04270963937573832</v>
       </c>
       <c r="H6">
-        <v>0.2356070889841732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.03446513638559844</v>
+      </c>
+      <c r="I6">
+        <v>-0.0489584706890912</v>
+      </c>
+      <c r="J6">
+        <v>0.1509943866042397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08729562192889417</v>
+        <v>0.07604260744299277</v>
       </c>
       <c r="C7">
-        <v>-0.03899514334940637</v>
+        <v>-0.04248474936614315</v>
       </c>
       <c r="D7">
-        <v>0.02642901381693147</v>
+        <v>0.03432534475094588</v>
       </c>
       <c r="E7">
-        <v>0.04943477490438038</v>
+        <v>-0.03512136213105598</v>
       </c>
       <c r="F7">
-        <v>-0.003584419276533675</v>
+        <v>-0.002031751986750522</v>
       </c>
       <c r="G7">
-        <v>0.003205995820959758</v>
+        <v>0.04404282882012228</v>
       </c>
       <c r="H7">
-        <v>0.009602756913307663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03140707645604206</v>
+      </c>
+      <c r="I7">
+        <v>0.00787181322756174</v>
+      </c>
+      <c r="J7">
+        <v>-0.06921424542716374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04030408237764448</v>
+        <v>0.05340891193984532</v>
       </c>
       <c r="C8">
-        <v>0.04182802620844963</v>
+        <v>-0.005673857610913142</v>
       </c>
       <c r="D8">
-        <v>0.06336547337490547</v>
+        <v>0.007027122343823587</v>
       </c>
       <c r="E8">
-        <v>0.09805795181437917</v>
+        <v>-0.0247980890076181</v>
       </c>
       <c r="F8">
-        <v>-0.05566475012409144</v>
+        <v>0.02292557051560132</v>
       </c>
       <c r="G8">
-        <v>-0.1527443907121548</v>
+        <v>-0.02554444510667775</v>
       </c>
       <c r="H8">
-        <v>0.08913477572456269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07957462342459898</v>
+      </c>
+      <c r="I8">
+        <v>-0.08494660574795856</v>
+      </c>
+      <c r="J8">
+        <v>-0.0199039782449157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09543485045983303</v>
+        <v>0.09798766999946462</v>
       </c>
       <c r="C9">
-        <v>-0.03294170936606153</v>
+        <v>-0.05058961005778118</v>
       </c>
       <c r="D9">
-        <v>0.04033158325953924</v>
+        <v>-0.007749046707730245</v>
       </c>
       <c r="E9">
-        <v>0.04795388074157011</v>
+        <v>-0.01167966787126998</v>
       </c>
       <c r="F9">
-        <v>-0.02158471749716136</v>
+        <v>0.01927350671063001</v>
       </c>
       <c r="G9">
-        <v>-0.07265113296297952</v>
+        <v>-0.004157426848036563</v>
       </c>
       <c r="H9">
-        <v>0.05470502635037674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07066969034028858</v>
+      </c>
+      <c r="I9">
+        <v>-0.06884773730133072</v>
+      </c>
+      <c r="J9">
+        <v>-0.04548231528409629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04168429356195374</v>
+        <v>0.06070457234208604</v>
       </c>
       <c r="C10">
-        <v>0.1790860624184515</v>
+        <v>0.1886679418495445</v>
       </c>
       <c r="D10">
-        <v>0.01082726624186254</v>
+        <v>-0.003464493577575796</v>
       </c>
       <c r="E10">
-        <v>0.09516161265603151</v>
+        <v>-0.0003656109086839255</v>
       </c>
       <c r="F10">
-        <v>-0.03087785117643546</v>
+        <v>0.004926850819923645</v>
       </c>
       <c r="G10">
-        <v>0.04269288787008927</v>
+        <v>0.05778181219996346</v>
       </c>
       <c r="H10">
-        <v>0.02121256772947563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02218686826235693</v>
+      </c>
+      <c r="I10">
+        <v>-0.01709454920638389</v>
+      </c>
+      <c r="J10">
+        <v>-0.01970414585179122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07735576659075187</v>
+        <v>0.09365455666270592</v>
       </c>
       <c r="C11">
-        <v>-0.05608249723233426</v>
+        <v>-0.06719745693750703</v>
       </c>
       <c r="D11">
-        <v>-0.02034012135180274</v>
+        <v>0.02871163134093752</v>
       </c>
       <c r="E11">
-        <v>0.01512903053716535</v>
+        <v>-0.03983757658875177</v>
       </c>
       <c r="F11">
-        <v>-0.01173897989797702</v>
+        <v>0.06449560482529007</v>
       </c>
       <c r="G11">
-        <v>-0.1425927651232037</v>
+        <v>-0.0285698828756719</v>
       </c>
       <c r="H11">
-        <v>-0.03438639218610358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08569892692329202</v>
+      </c>
+      <c r="I11">
+        <v>-0.06469165275959433</v>
+      </c>
+      <c r="J11">
+        <v>-0.01831315739941529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.07684725331555302</v>
+        <v>0.09971759608986726</v>
       </c>
       <c r="C12">
-        <v>-0.0301059520130052</v>
+        <v>-0.06892927085495811</v>
       </c>
       <c r="D12">
-        <v>0.01471986767586574</v>
+        <v>0.02933434058682205</v>
       </c>
       <c r="E12">
-        <v>0.01037268367710269</v>
+        <v>-0.04106165077787419</v>
       </c>
       <c r="F12">
-        <v>-0.05705070353284541</v>
+        <v>0.0781748322019027</v>
       </c>
       <c r="G12">
-        <v>-0.1378977025944698</v>
+        <v>-0.01669127808120904</v>
       </c>
       <c r="H12">
-        <v>-0.0357177056884849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09144430383730012</v>
+      </c>
+      <c r="I12">
+        <v>-0.04920748489262192</v>
+      </c>
+      <c r="J12">
+        <v>-0.006768184621052056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06231903488056065</v>
+        <v>0.0458280384089271</v>
       </c>
       <c r="C13">
-        <v>-0.002908576378974539</v>
+        <v>-0.01687675707497069</v>
       </c>
       <c r="D13">
-        <v>0.02504204984753011</v>
+        <v>-0.02900694486389891</v>
       </c>
       <c r="E13">
-        <v>0.01416811732260286</v>
+        <v>-0.007690174378028055</v>
       </c>
       <c r="F13">
-        <v>0.02044326580968972</v>
+        <v>0.001738049672609738</v>
       </c>
       <c r="G13">
-        <v>-0.1193301364747534</v>
+        <v>-0.01094461118636251</v>
       </c>
       <c r="H13">
-        <v>0.05574082760381985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.0753667121496341</v>
+      </c>
+      <c r="I13">
+        <v>-0.03301359133980131</v>
+      </c>
+      <c r="J13">
+        <v>0.002268752164139599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.05195103671347473</v>
+        <v>0.03171802810581462</v>
       </c>
       <c r="C14">
-        <v>-0.009333894427921166</v>
+        <v>-0.006487325658383993</v>
       </c>
       <c r="D14">
-        <v>0.01862079079713798</v>
+        <v>0.00507331742985711</v>
       </c>
       <c r="E14">
-        <v>0.0497102868804424</v>
+        <v>-0.0006199074065567055</v>
       </c>
       <c r="F14">
-        <v>0.006209653216858685</v>
+        <v>0.01513154433183112</v>
       </c>
       <c r="G14">
-        <v>-0.01244188781999994</v>
+        <v>0.00177178533616607</v>
       </c>
       <c r="H14">
-        <v>0.1414576189052701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02754482145408596</v>
+      </c>
+      <c r="I14">
+        <v>-0.03089754728797434</v>
+      </c>
+      <c r="J14">
+        <v>-0.1091110051470031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03790975965725955</v>
+        <v>0.03203350229273867</v>
       </c>
       <c r="C15">
-        <v>0.01199510048185084</v>
+        <v>-0.01737350648630889</v>
       </c>
       <c r="D15">
-        <v>0.004661204620994648</v>
+        <v>-0.01001368472508255</v>
       </c>
       <c r="E15">
-        <v>0.02295963407327276</v>
+        <v>-0.01556732755787389</v>
       </c>
       <c r="F15">
-        <v>0.0006980123949446899</v>
+        <v>-0.02149412206439857</v>
       </c>
       <c r="G15">
-        <v>-0.005522834660038429</v>
+        <v>-0.004107943329897343</v>
       </c>
       <c r="H15">
-        <v>0.07560521776854649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04762612918263953</v>
+      </c>
+      <c r="I15">
+        <v>-0.009282444337031364</v>
+      </c>
+      <c r="J15">
+        <v>-0.04220014729637968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08540453390814128</v>
+        <v>0.09851051043015993</v>
       </c>
       <c r="C16">
-        <v>-0.06201423576036835</v>
+        <v>-0.06238112900902246</v>
       </c>
       <c r="D16">
-        <v>0.02625595976598755</v>
+        <v>0.03967418673463659</v>
       </c>
       <c r="E16">
-        <v>0.01818819960957863</v>
+        <v>-0.04641886583486295</v>
       </c>
       <c r="F16">
-        <v>0.0002614205600324136</v>
+        <v>0.06461536242532159</v>
       </c>
       <c r="G16">
-        <v>-0.1304480856690152</v>
+        <v>-0.01958737208988014</v>
       </c>
       <c r="H16">
-        <v>-0.0318866192417272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09595459016844279</v>
+      </c>
+      <c r="I16">
+        <v>-0.04014804635877175</v>
+      </c>
+      <c r="J16">
+        <v>-0.0211996723399894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.0580715744472841</v>
+        <v>0.05780291337221576</v>
       </c>
       <c r="C20">
-        <v>-0.0139653281588061</v>
+        <v>-0.02946267403929274</v>
       </c>
       <c r="D20">
-        <v>-0.01294374069902431</v>
+        <v>0.03191551489003722</v>
       </c>
       <c r="E20">
-        <v>0.01916443164556227</v>
+        <v>-0.005523862915550425</v>
       </c>
       <c r="F20">
-        <v>-0.03137783649473335</v>
+        <v>-0.005592125302194722</v>
       </c>
       <c r="G20">
-        <v>-0.1083733728791088</v>
+        <v>-0.006666589212252091</v>
       </c>
       <c r="H20">
-        <v>0.02350022793504034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04305873728991742</v>
+      </c>
+      <c r="I20">
+        <v>-0.02851441742808254</v>
+      </c>
+      <c r="J20">
+        <v>-0.06714314280648817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02681661942534596</v>
+        <v>0.02136197551058881</v>
       </c>
       <c r="C21">
-        <v>-0.03146686097069756</v>
+        <v>-0.002896607931568168</v>
       </c>
       <c r="D21">
-        <v>-0.0006341303377414609</v>
+        <v>0.006379972922660139</v>
       </c>
       <c r="E21">
-        <v>-0.002991875434136006</v>
+        <v>0.03551073660302619</v>
       </c>
       <c r="F21">
-        <v>-0.04079754723506334</v>
+        <v>-0.002410909899903895</v>
       </c>
       <c r="G21">
-        <v>0.1579903495984869</v>
+        <v>-0.03174694597298117</v>
       </c>
       <c r="H21">
-        <v>0.08462651062934053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01636040122328931</v>
+      </c>
+      <c r="I21">
+        <v>-0.0403037598310799</v>
+      </c>
+      <c r="J21">
+        <v>-0.05287205775687776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04228323707997453</v>
+        <v>0.03919760964963142</v>
       </c>
       <c r="C22">
-        <v>-0.01015944516313885</v>
+        <v>0.03081528290634218</v>
       </c>
       <c r="D22">
-        <v>0.6227610599827639</v>
+        <v>-0.008085100738829053</v>
       </c>
       <c r="E22">
-        <v>-0.1148436266147428</v>
+        <v>-0.1227822455590387</v>
       </c>
       <c r="F22">
-        <v>0.06214218572769589</v>
+        <v>-0.5793255750381489</v>
       </c>
       <c r="G22">
-        <v>0.2123029152226445</v>
+        <v>0.05261277540807299</v>
       </c>
       <c r="H22">
-        <v>-0.06645655386355334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2968860148953056</v>
+      </c>
+      <c r="I22">
+        <v>0.1097620515477842</v>
+      </c>
+      <c r="J22">
+        <v>0.08319632560962545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04270707147521374</v>
+        <v>0.03937921925622595</v>
       </c>
       <c r="C23">
-        <v>-0.01098727490363572</v>
+        <v>0.03053507362420346</v>
       </c>
       <c r="D23">
-        <v>0.622413914703135</v>
+        <v>-0.007663757701113401</v>
       </c>
       <c r="E23">
-        <v>-0.1131890348332519</v>
+        <v>-0.1244721427358501</v>
       </c>
       <c r="F23">
-        <v>0.06257005370573664</v>
+        <v>-0.5809489637081044</v>
       </c>
       <c r="G23">
-        <v>0.214198011283455</v>
+        <v>0.05204357198537872</v>
       </c>
       <c r="H23">
-        <v>-0.06627411940645443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.298487806770984</v>
+      </c>
+      <c r="I23">
+        <v>0.1078487164547216</v>
+      </c>
+      <c r="J23">
+        <v>0.08198474132614965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08472149028192665</v>
+        <v>0.09976660942914305</v>
       </c>
       <c r="C24">
-        <v>-0.04404799193203252</v>
+        <v>-0.05917075182448825</v>
       </c>
       <c r="D24">
-        <v>0.03017105377031362</v>
+        <v>0.03430655837167119</v>
       </c>
       <c r="E24">
-        <v>0.03184454571670582</v>
+        <v>-0.0349190995339127</v>
       </c>
       <c r="F24">
-        <v>-0.02425197123270807</v>
+        <v>0.0640005010858736</v>
       </c>
       <c r="G24">
-        <v>-0.11459131345869</v>
+        <v>-0.005540219933832126</v>
       </c>
       <c r="H24">
-        <v>-0.02208968582132074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1000831992413579</v>
+      </c>
+      <c r="I24">
+        <v>-0.04180326276651886</v>
+      </c>
+      <c r="J24">
+        <v>-0.01026660146209116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07774573569505912</v>
+        <v>0.1017983174738369</v>
       </c>
       <c r="C25">
-        <v>-0.01724765708622127</v>
+        <v>-0.04751256603106223</v>
       </c>
       <c r="D25">
-        <v>0.0169373680161287</v>
+        <v>0.02932543644100321</v>
       </c>
       <c r="E25">
-        <v>0.0208497302648751</v>
+        <v>-0.04024340064005066</v>
       </c>
       <c r="F25">
-        <v>-0.04415926317827153</v>
+        <v>0.09090288219724946</v>
       </c>
       <c r="G25">
-        <v>-0.1114469632003449</v>
+        <v>-0.01476278856999666</v>
       </c>
       <c r="H25">
-        <v>-0.02682710660397132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09523134402629226</v>
+      </c>
+      <c r="I25">
+        <v>-0.04561138108237921</v>
+      </c>
+      <c r="J25">
+        <v>-0.03188236875866759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.05112457604312672</v>
+        <v>0.04795357288176492</v>
       </c>
       <c r="C26">
-        <v>-0.02312163960544686</v>
+        <v>-0.001013082712455483</v>
       </c>
       <c r="D26">
-        <v>0.006784550727173133</v>
+        <v>0.0266302673183822</v>
       </c>
       <c r="E26">
-        <v>0.04366456284659471</v>
+        <v>-0.009147463402508655</v>
       </c>
       <c r="F26">
-        <v>0.0216130444964205</v>
+        <v>0.008268178176121514</v>
       </c>
       <c r="G26">
-        <v>-0.07728876241958284</v>
+        <v>-0.03384687601673591</v>
       </c>
       <c r="H26">
-        <v>0.1048052946306274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06127213088234426</v>
+      </c>
+      <c r="I26">
+        <v>-0.02270032291392485</v>
+      </c>
+      <c r="J26">
+        <v>-0.06475207834203732</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06424930041304103</v>
+        <v>0.06340909429923888</v>
       </c>
       <c r="C28">
-        <v>0.3088188296372671</v>
+        <v>0.3081118685957017</v>
       </c>
       <c r="D28">
-        <v>-0.01039225665856014</v>
+        <v>-0.0731890193222112</v>
       </c>
       <c r="E28">
-        <v>0.01709008937696678</v>
+        <v>-0.03412575505960756</v>
       </c>
       <c r="F28">
-        <v>0.005533836527411387</v>
+        <v>0.05395381811284343</v>
       </c>
       <c r="G28">
-        <v>0.001992136840160625</v>
+        <v>-0.0288635119558965</v>
       </c>
       <c r="H28">
-        <v>-0.05813317974618734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04460029591037867</v>
+      </c>
+      <c r="I28">
+        <v>-0.04296533307598786</v>
+      </c>
+      <c r="J28">
+        <v>-0.009177097785016457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05796434374691013</v>
+        <v>0.03769237437430054</v>
       </c>
       <c r="C29">
-        <v>0.001026056715484888</v>
+        <v>-0.005612030203566798</v>
       </c>
       <c r="D29">
-        <v>0.03949226420552372</v>
+        <v>-0.005858277625684398</v>
       </c>
       <c r="E29">
-        <v>0.02938324561901548</v>
+        <v>-0.00932871432261206</v>
       </c>
       <c r="F29">
-        <v>0.009412249852506214</v>
+        <v>0.02178919284211492</v>
       </c>
       <c r="G29">
-        <v>-0.04500085547992969</v>
+        <v>0.008774802441955299</v>
       </c>
       <c r="H29">
-        <v>0.1045802725823476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06213312695983039</v>
+      </c>
+      <c r="I29">
+        <v>-0.01423446441655614</v>
+      </c>
+      <c r="J29">
+        <v>-0.117174003025543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1131478348965905</v>
+        <v>0.1213965252313943</v>
       </c>
       <c r="C30">
-        <v>0.01005916574494077</v>
+        <v>-0.05891185489746071</v>
       </c>
       <c r="D30">
-        <v>0.1573571177971257</v>
+        <v>-0.009360961528441866</v>
       </c>
       <c r="E30">
-        <v>0.04036307585892965</v>
+        <v>-0.02817674362887265</v>
       </c>
       <c r="F30">
-        <v>-0.1942356153295534</v>
+        <v>0.05118820336587241</v>
       </c>
       <c r="G30">
-        <v>-0.1714837936818694</v>
+        <v>-0.08496523435737928</v>
       </c>
       <c r="H30">
-        <v>-0.02939863970078052</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1481532867413013</v>
+      </c>
+      <c r="I30">
+        <v>-0.04684590902415513</v>
+      </c>
+      <c r="J30">
+        <v>0.1292388113847538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05580655047238159</v>
+        <v>0.03975712341785615</v>
       </c>
       <c r="C31">
-        <v>-0.02943878884858414</v>
+        <v>-0.02352436653500621</v>
       </c>
       <c r="D31">
-        <v>0.02206482729065687</v>
+        <v>0.02074028536297941</v>
       </c>
       <c r="E31">
-        <v>-0.00884175764953548</v>
+        <v>-0.02208611901093468</v>
       </c>
       <c r="F31">
-        <v>0.001898386083679094</v>
+        <v>-0.006996925608234251</v>
       </c>
       <c r="G31">
-        <v>-0.02805494420925185</v>
+        <v>-0.001238138131398439</v>
       </c>
       <c r="H31">
-        <v>0.04018721565482827</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.01029226082892788</v>
+      </c>
+      <c r="I31">
+        <v>-0.0278126677900115</v>
+      </c>
+      <c r="J31">
+        <v>-0.06431862454990367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03329496067590073</v>
+        <v>0.05594387233319299</v>
       </c>
       <c r="C32">
-        <v>0.01587201139723519</v>
+        <v>-0.001914510042588617</v>
       </c>
       <c r="D32">
-        <v>0.06543359786771837</v>
+        <v>0.02207993671722488</v>
       </c>
       <c r="E32">
-        <v>-0.005192857318809833</v>
+        <v>0.00214222460843694</v>
       </c>
       <c r="F32">
-        <v>0.0997720683928885</v>
+        <v>0.04999443925785217</v>
       </c>
       <c r="G32">
-        <v>-0.08257440642071488</v>
+        <v>-0.06238865070672538</v>
       </c>
       <c r="H32">
-        <v>0.03322323041766001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03552458671034906</v>
+      </c>
+      <c r="I32">
+        <v>0.004213234056807133</v>
+      </c>
+      <c r="J32">
+        <v>-0.02313279785686038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.112714582167736</v>
+        <v>0.1114740428303323</v>
       </c>
       <c r="C33">
-        <v>-0.01133009052784174</v>
+        <v>-0.04675458425757129</v>
       </c>
       <c r="D33">
-        <v>0.02081180321892851</v>
+        <v>0.002489267407555652</v>
       </c>
       <c r="E33">
-        <v>-0.01999821790128105</v>
+        <v>-0.06848447437708519</v>
       </c>
       <c r="F33">
-        <v>-0.01417886755627123</v>
+        <v>0.05342014692851918</v>
       </c>
       <c r="G33">
-        <v>-0.07464373164086603</v>
+        <v>-0.0156252957431808</v>
       </c>
       <c r="H33">
-        <v>0.06762523234916937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07482515632981185</v>
+      </c>
+      <c r="I33">
+        <v>-0.008339425733648102</v>
+      </c>
+      <c r="J33">
+        <v>-0.02653468992075449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06959680977354014</v>
+        <v>0.08471398547096268</v>
       </c>
       <c r="C34">
-        <v>-0.03558485099436464</v>
+        <v>-0.04290053891215385</v>
       </c>
       <c r="D34">
-        <v>0.004253769208380324</v>
+        <v>0.03086809433148404</v>
       </c>
       <c r="E34">
-        <v>-5.312939387014627e-06</v>
+        <v>-0.03404327207588596</v>
       </c>
       <c r="F34">
-        <v>0.007828202100870849</v>
+        <v>0.06861491431499235</v>
       </c>
       <c r="G34">
-        <v>-0.09956824648931052</v>
+        <v>-0.009447370076651879</v>
       </c>
       <c r="H34">
-        <v>-0.006091126355583273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.09882208141627866</v>
+      </c>
+      <c r="I34">
+        <v>-0.01787618162979221</v>
+      </c>
+      <c r="J34">
+        <v>-0.02194701293178013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.0437369179663258</v>
+        <v>0.02127700576034299</v>
       </c>
       <c r="C35">
-        <v>-0.00298943271373356</v>
+        <v>-0.008345831778509958</v>
       </c>
       <c r="D35">
-        <v>-0.02359034828366303</v>
+        <v>-0.00887267184891154</v>
       </c>
       <c r="E35">
-        <v>-0.01104019938371747</v>
+        <v>-0.006154823610720173</v>
       </c>
       <c r="F35">
-        <v>-0.04022924232171723</v>
+        <v>0.01794593354196491</v>
       </c>
       <c r="G35">
-        <v>-0.03575785946288729</v>
+        <v>-0.00400595671904146</v>
       </c>
       <c r="H35">
-        <v>-0.008984910188513478</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.0395035116339276</v>
+      </c>
+      <c r="I35">
+        <v>-0.005530568931710656</v>
+      </c>
+      <c r="J35">
+        <v>-0.07336164506106413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.0392692698479928</v>
+        <v>0.0305994549455749</v>
       </c>
       <c r="C36">
-        <v>-5.347520958239733e-05</v>
+        <v>-0.01307035004050679</v>
       </c>
       <c r="D36">
-        <v>0.01749245913152624</v>
+        <v>-0.006123638552950739</v>
       </c>
       <c r="E36">
-        <v>0.02579449852379528</v>
+        <v>-0.007427470535930095</v>
       </c>
       <c r="F36">
-        <v>-0.03279703084683629</v>
+        <v>-0.008329387486828061</v>
       </c>
       <c r="G36">
-        <v>-0.06609771967323089</v>
+        <v>-0.0268768804454544</v>
       </c>
       <c r="H36">
-        <v>0.06112843024800676</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.03067488115966113</v>
+      </c>
+      <c r="I36">
+        <v>-0.03477830648942214</v>
+      </c>
+      <c r="J36">
+        <v>-0.02986091803438087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05321999268811914</v>
+        <v>0.01623415116348561</v>
       </c>
       <c r="C38">
-        <v>-0.02075305663660761</v>
+        <v>-0.005733320965816265</v>
       </c>
       <c r="D38">
-        <v>0.004981848381598332</v>
+        <v>0.006727643215012807</v>
       </c>
       <c r="E38">
-        <v>0.005011587179974546</v>
+        <v>-0.009966341655272869</v>
       </c>
       <c r="F38">
-        <v>0.02454496480988748</v>
+        <v>-0.02077436758550308</v>
       </c>
       <c r="G38">
-        <v>-0.06383723023147127</v>
+        <v>0.02429342873220749</v>
       </c>
       <c r="H38">
-        <v>0.01417502735423886</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.00997376984898961</v>
+      </c>
+      <c r="I38">
+        <v>0.03589507979229832</v>
+      </c>
+      <c r="J38">
+        <v>0.008184828112952177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1056904276797566</v>
+        <v>0.1534824289946305</v>
       </c>
       <c r="C39">
-        <v>-0.04476918806167149</v>
+        <v>-0.1052821694482756</v>
       </c>
       <c r="D39">
-        <v>0.06058952384520772</v>
+        <v>0.03148655669412726</v>
       </c>
       <c r="E39">
-        <v>0.0143651887875024</v>
+        <v>-0.05131780917381058</v>
       </c>
       <c r="F39">
-        <v>0.002914125605109526</v>
+        <v>0.1676948940636953</v>
       </c>
       <c r="G39">
-        <v>-0.1640318417836573</v>
+        <v>-0.03351562673703348</v>
       </c>
       <c r="H39">
-        <v>-0.09262309458156674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1587707067379727</v>
+      </c>
+      <c r="I39">
+        <v>-0.01512047579210032</v>
+      </c>
+      <c r="J39">
+        <v>-0.06796398775591861</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04564898107799083</v>
+        <v>0.01781824973624888</v>
       </c>
       <c r="C40">
-        <v>-0.01376118503764954</v>
+        <v>-0.005602450491621053</v>
       </c>
       <c r="D40">
-        <v>0.04809589028791997</v>
+        <v>0.01429027897930315</v>
       </c>
       <c r="E40">
-        <v>-0.02530253143323832</v>
+        <v>0.003267977843031751</v>
       </c>
       <c r="F40">
-        <v>-0.08528640454997938</v>
+        <v>-0.04413350002909167</v>
       </c>
       <c r="G40">
-        <v>-0.2892119455759913</v>
+        <v>-0.02090802811675271</v>
       </c>
       <c r="H40">
-        <v>-0.08959867110889101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.09729625752215439</v>
+      </c>
+      <c r="I40">
+        <v>-0.05281412761117161</v>
+      </c>
+      <c r="J40">
+        <v>0.003730803873416413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05029416119403417</v>
+        <v>0.02682945561020823</v>
       </c>
       <c r="C41">
-        <v>-0.0325183749460472</v>
+        <v>0.005644515008874601</v>
       </c>
       <c r="D41">
-        <v>-0.02517222027658154</v>
+        <v>0.03010192791185215</v>
       </c>
       <c r="E41">
-        <v>-0.001283007854383475</v>
+        <v>-0.006865204397833172</v>
       </c>
       <c r="F41">
-        <v>0.03038711922794186</v>
+        <v>0.01005618958656314</v>
       </c>
       <c r="G41">
-        <v>-0.05523954690747719</v>
+        <v>0.004611427350813079</v>
       </c>
       <c r="H41">
-        <v>0.009799033224343378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006484680218783875</v>
+      </c>
+      <c r="I41">
+        <v>-0.006178457854939842</v>
+      </c>
+      <c r="J41">
+        <v>-0.05621784186322717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.0732272870713611</v>
+        <v>0.03878548813989358</v>
       </c>
       <c r="C43">
-        <v>-0.02811108974574929</v>
+        <v>-0.0001678554373196034</v>
       </c>
       <c r="D43">
-        <v>0.02913230355334749</v>
+        <v>0.0382010562002486</v>
       </c>
       <c r="E43">
-        <v>0.01066888832909606</v>
+        <v>-0.03264941423199855</v>
       </c>
       <c r="F43">
-        <v>0.03722840791102917</v>
+        <v>-0.001775523291915994</v>
       </c>
       <c r="G43">
-        <v>-0.01624978696204409</v>
+        <v>-5.60830066824793e-05</v>
       </c>
       <c r="H43">
-        <v>0.002628671116050597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.008442767438364305</v>
+      </c>
+      <c r="I43">
+        <v>-0.008822697771425692</v>
+      </c>
+      <c r="J43">
+        <v>-0.06688439060927659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08207907842219593</v>
+        <v>0.124898399439502</v>
       </c>
       <c r="C44">
-        <v>-0.003276016864000259</v>
+        <v>-0.0637411227763377</v>
       </c>
       <c r="D44">
-        <v>0.05911909433370405</v>
+        <v>-0.005711468951112598</v>
       </c>
       <c r="E44">
-        <v>0.1122391086048676</v>
+        <v>-0.03184574791292236</v>
       </c>
       <c r="F44">
-        <v>0.02235801730896171</v>
+        <v>0.01368436162434036</v>
       </c>
       <c r="G44">
-        <v>-0.1029393321104215</v>
+        <v>0.05432465892377373</v>
       </c>
       <c r="H44">
-        <v>0.02441051308177996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2345894783215494</v>
+      </c>
+      <c r="I44">
+        <v>-0.06853326566994969</v>
+      </c>
+      <c r="J44">
+        <v>0.12612054284017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05281524250978872</v>
+        <v>0.02362740261496742</v>
       </c>
       <c r="C46">
-        <v>-0.03775316359481261</v>
+        <v>0.001045424331938626</v>
       </c>
       <c r="D46">
-        <v>0.04823487586833998</v>
+        <v>0.02103626447737513</v>
       </c>
       <c r="E46">
-        <v>4.682870259904742e-05</v>
+        <v>-0.02928772985856691</v>
       </c>
       <c r="F46">
-        <v>0.01067883758022606</v>
+        <v>-0.02532995535218236</v>
       </c>
       <c r="G46">
-        <v>-0.01307243538961593</v>
+        <v>0.01217410149544618</v>
       </c>
       <c r="H46">
-        <v>0.0958688970705228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04316212503355882</v>
+      </c>
+      <c r="I46">
+        <v>0.00658586713043445</v>
+      </c>
+      <c r="J46">
+        <v>-0.1095881456379664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0505058635533224</v>
+        <v>0.04645658618134752</v>
       </c>
       <c r="C47">
-        <v>0.002615312324467988</v>
+        <v>0.000643942796855376</v>
       </c>
       <c r="D47">
-        <v>0.04730654529252477</v>
+        <v>0.01424572743927092</v>
       </c>
       <c r="E47">
-        <v>-0.02205180881734144</v>
+        <v>-0.01155331787425975</v>
       </c>
       <c r="F47">
-        <v>-0.04439138692864939</v>
+        <v>-0.007656518793034774</v>
       </c>
       <c r="G47">
-        <v>-0.02241923899007204</v>
+        <v>-0.03131552270140128</v>
       </c>
       <c r="H47">
-        <v>0.04844562052835719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.0481632289792516</v>
+      </c>
+      <c r="I47">
+        <v>-0.04582612875985616</v>
+      </c>
+      <c r="J47">
+        <v>-0.04844114451448115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04305225833857864</v>
+        <v>0.04408047414271155</v>
       </c>
       <c r="C48">
-        <v>-0.001811383771246877</v>
+        <v>-0.01569183642385171</v>
       </c>
       <c r="D48">
-        <v>0.02784242364947985</v>
+        <v>-0.01066409375131437</v>
       </c>
       <c r="E48">
-        <v>-0.03944970862952237</v>
+        <v>-0.01302113307703911</v>
       </c>
       <c r="F48">
-        <v>-0.04402759694419005</v>
+        <v>0.005752496977494752</v>
       </c>
       <c r="G48">
-        <v>-0.04408162559396928</v>
+        <v>-0.03762837189585942</v>
       </c>
       <c r="H48">
-        <v>0.02233297037873455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05563980351057242</v>
+      </c>
+      <c r="I48">
+        <v>-0.02517559181635565</v>
+      </c>
+      <c r="J48">
+        <v>-0.07901266394746896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2431583375650691</v>
+        <v>0.2267616095624201</v>
       </c>
       <c r="C49">
-        <v>-0.06263614397875854</v>
+        <v>0.009320861190081006</v>
       </c>
       <c r="D49">
-        <v>-0.1097572667090214</v>
+        <v>0.06332386229232247</v>
       </c>
       <c r="E49">
-        <v>-0.002394618736568459</v>
+        <v>0.03274877884873482</v>
       </c>
       <c r="F49">
-        <v>0.01948130271585048</v>
+        <v>0.02803972700921208</v>
       </c>
       <c r="G49">
-        <v>0.1978304828661735</v>
+        <v>0.1141550546346311</v>
       </c>
       <c r="H49">
-        <v>-0.09729694031834983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.09883712286753306</v>
+      </c>
+      <c r="I49">
+        <v>0.0866207624207101</v>
+      </c>
+      <c r="J49">
+        <v>0.2531160094027136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05598998045866072</v>
+        <v>0.04580393459979382</v>
       </c>
       <c r="C50">
-        <v>-0.0180928255501163</v>
+        <v>-0.02002916942272415</v>
       </c>
       <c r="D50">
-        <v>0.02428072577013672</v>
+        <v>0.02761766769660587</v>
       </c>
       <c r="E50">
-        <v>-0.01335047843859377</v>
+        <v>-0.0139600932477031</v>
       </c>
       <c r="F50">
-        <v>0.01391792040799293</v>
+        <v>0.003606874811837684</v>
       </c>
       <c r="G50">
-        <v>-0.02291902626402106</v>
+        <v>-0.004638428726109597</v>
       </c>
       <c r="H50">
-        <v>0.0701771009272573</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.0305145905083401</v>
+      </c>
+      <c r="I50">
+        <v>-0.009911455583621843</v>
+      </c>
+      <c r="J50">
+        <v>-0.0607361587172702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03327018675095039</v>
+        <v>0.01367049935699445</v>
       </c>
       <c r="C51">
-        <v>-0.01189254553714795</v>
+        <v>0.008791485819723886</v>
       </c>
       <c r="D51">
-        <v>0.01456044612642454</v>
+        <v>0.001898103190471354</v>
       </c>
       <c r="E51">
-        <v>0.0215290414498809</v>
+        <v>-0.01512663139022181</v>
       </c>
       <c r="F51">
-        <v>0.03739910011049696</v>
+        <v>-0.005028923105618251</v>
       </c>
       <c r="G51">
-        <v>0.005313298858381756</v>
+        <v>0.02560855772224946</v>
       </c>
       <c r="H51">
-        <v>-0.03677321620073981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.007439302974434937</v>
+      </c>
+      <c r="I51">
+        <v>-0.005134014482858012</v>
+      </c>
+      <c r="J51">
+        <v>0.01554261300518402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1076931379040944</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06087801081037519</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.03029743290583354</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02361557859368215</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01284337524690492</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.01511965573622348</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02677163375810591</v>
+      </c>
+      <c r="I52">
+        <v>0.05805721987752768</v>
+      </c>
+      <c r="J52">
+        <v>-0.07423685056880591</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1650697025154196</v>
+        <v>0.1568104188878745</v>
       </c>
       <c r="C53">
-        <v>-0.01353673124674083</v>
+        <v>-0.001028473260934388</v>
       </c>
       <c r="D53">
-        <v>0.001954687401218876</v>
+        <v>-0.006307393306501667</v>
       </c>
       <c r="E53">
-        <v>-0.05339922621820777</v>
+        <v>0.02183252104556022</v>
       </c>
       <c r="F53">
-        <v>0.1674729188916159</v>
+        <v>-0.05288715448748797</v>
       </c>
       <c r="G53">
-        <v>0.007689543225636127</v>
+        <v>0.0612630167290051</v>
       </c>
       <c r="H53">
-        <v>0.04654828931981233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.09158676322399727</v>
+      </c>
+      <c r="I53">
+        <v>0.1469087647753968</v>
+      </c>
+      <c r="J53">
+        <v>-0.09820328998814186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05258379549962828</v>
+        <v>0.05268167357224163</v>
       </c>
       <c r="C54">
-        <v>-0.0047009812078165</v>
+        <v>-0.00578538743220029</v>
       </c>
       <c r="D54">
-        <v>0.02616465412061526</v>
+        <v>0.009952521778020756</v>
       </c>
       <c r="E54">
-        <v>0.00600564762173018</v>
+        <v>-0.01697031113999137</v>
       </c>
       <c r="F54">
-        <v>-0.02696368515506564</v>
+        <v>-0.01899716068638147</v>
       </c>
       <c r="G54">
-        <v>-0.04122551610933674</v>
+        <v>-0.02409552172994851</v>
       </c>
       <c r="H54">
-        <v>0.08319391393558809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06160190722913582</v>
+      </c>
+      <c r="I54">
+        <v>-0.06862046190891358</v>
+      </c>
+      <c r="J54">
+        <v>-0.1094521700342743</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1026473541899373</v>
+        <v>0.09169467892426318</v>
       </c>
       <c r="C55">
-        <v>-0.0165373976130991</v>
+        <v>-0.02001825564290829</v>
       </c>
       <c r="D55">
-        <v>0.0121005659835726</v>
+        <v>-0.01967774637315985</v>
       </c>
       <c r="E55">
-        <v>-0.02247616879117239</v>
+        <v>-0.02808953816600849</v>
       </c>
       <c r="F55">
-        <v>0.07579035348670347</v>
+        <v>0.001200404256002167</v>
       </c>
       <c r="G55">
-        <v>-0.03828420737899248</v>
+        <v>0.01321023295646283</v>
       </c>
       <c r="H55">
-        <v>0.08086395364295593</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02816525953341784</v>
+      </c>
+      <c r="I55">
+        <v>0.05204069101776733</v>
+      </c>
+      <c r="J55">
+        <v>-0.09187243353562388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1673663168662306</v>
+        <v>0.1608512004471767</v>
       </c>
       <c r="C56">
-        <v>-0.01052028655552245</v>
+        <v>-0.01118950947661328</v>
       </c>
       <c r="D56">
-        <v>-0.005670951999795974</v>
+        <v>0.007060569081448597</v>
       </c>
       <c r="E56">
-        <v>-0.08657733999904245</v>
+        <v>-0.01077647940290988</v>
       </c>
       <c r="F56">
-        <v>0.156866522938309</v>
+        <v>-0.006826311827933453</v>
       </c>
       <c r="G56">
-        <v>-0.007002660741609823</v>
+        <v>0.05102207161054193</v>
       </c>
       <c r="H56">
-        <v>0.05113465543477314</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01894156864907406</v>
+      </c>
+      <c r="I56">
+        <v>0.1170732764172377</v>
+      </c>
+      <c r="J56">
+        <v>-0.09766679329203024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01825943955113398</v>
+        <v>0.03549613869614997</v>
       </c>
       <c r="C58">
-        <v>-0.06087901549546527</v>
+        <v>-0.02344436822505589</v>
       </c>
       <c r="D58">
-        <v>0.102162766456623</v>
+        <v>0.01434383875008009</v>
       </c>
       <c r="E58">
-        <v>-0.001166268117440595</v>
+        <v>-0.003089968533228401</v>
       </c>
       <c r="F58">
-        <v>-0.5338850024261527</v>
+        <v>-0.06055131728921773</v>
       </c>
       <c r="G58">
-        <v>-0.06912961978646284</v>
+        <v>-0.03049995451320059</v>
       </c>
       <c r="H58">
-        <v>-0.2441556859372384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1029169800269586</v>
+      </c>
+      <c r="I58">
+        <v>0.04591305772184675</v>
+      </c>
+      <c r="J58">
+        <v>-0.09128217487770021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1531082705218264</v>
+        <v>0.1383685456528324</v>
       </c>
       <c r="C59">
-        <v>0.3669343756324156</v>
+        <v>0.3031093262947142</v>
       </c>
       <c r="D59">
-        <v>-0.02647276751396991</v>
+        <v>-0.06862068153460689</v>
       </c>
       <c r="E59">
-        <v>0.04688578193304706</v>
+        <v>-0.04208715123838944</v>
       </c>
       <c r="F59">
-        <v>0.05121958532056909</v>
+        <v>0.04299574146516891</v>
       </c>
       <c r="G59">
-        <v>-0.001760922436537946</v>
+        <v>0.02943708471157189</v>
       </c>
       <c r="H59">
-        <v>-0.03819763026865718</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.0442406497269687</v>
+      </c>
+      <c r="I59">
+        <v>-0.07805812502650225</v>
+      </c>
+      <c r="J59">
+        <v>-0.01312663377316908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2806232071996743</v>
+        <v>0.2802898793978765</v>
       </c>
       <c r="C60">
-        <v>-0.0492311285701896</v>
+        <v>-0.05865403594841474</v>
       </c>
       <c r="D60">
-        <v>-0.06936155269751844</v>
+        <v>0.002240325296716753</v>
       </c>
       <c r="E60">
-        <v>0.0466915385695395</v>
+        <v>0.08833402865042321</v>
       </c>
       <c r="F60">
-        <v>0.001761863997683152</v>
+        <v>0.03113051780988934</v>
       </c>
       <c r="G60">
-        <v>0.1698899794018447</v>
+        <v>0.200584452378108</v>
       </c>
       <c r="H60">
-        <v>-0.07423943453548937</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1108098049326951</v>
+      </c>
+      <c r="I60">
+        <v>0.02779430442170229</v>
+      </c>
+      <c r="J60">
+        <v>0.4774505403142635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09312039197828351</v>
+        <v>0.1171268884127401</v>
       </c>
       <c r="C61">
-        <v>-0.02196150890977515</v>
+        <v>-0.06332692090463951</v>
       </c>
       <c r="D61">
-        <v>0.02481177014814401</v>
+        <v>0.001455209599402542</v>
       </c>
       <c r="E61">
-        <v>0.01284740448037847</v>
+        <v>-0.03840317633824902</v>
       </c>
       <c r="F61">
-        <v>0.0183859068706176</v>
+        <v>0.1140336065838066</v>
       </c>
       <c r="G61">
-        <v>-0.08728157267427782</v>
+        <v>-0.02226592111714999</v>
       </c>
       <c r="H61">
-        <v>-0.02259254242199851</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1402438693586136</v>
+      </c>
+      <c r="I61">
+        <v>-0.07881749655680208</v>
+      </c>
+      <c r="J61">
+        <v>-0.0814724463523125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1421059607919256</v>
+        <v>0.1615119771495259</v>
       </c>
       <c r="C62">
-        <v>-0.0394405337474469</v>
+        <v>-0.02705052847289731</v>
       </c>
       <c r="D62">
-        <v>-0.05502648456325476</v>
+        <v>0.001173715653655672</v>
       </c>
       <c r="E62">
-        <v>-0.1009779701470959</v>
+        <v>0.004816542704496943</v>
       </c>
       <c r="F62">
-        <v>0.1615762896574901</v>
+        <v>-0.01134422261723191</v>
       </c>
       <c r="G62">
-        <v>0.001175411410995673</v>
+        <v>0.0151738676739697</v>
       </c>
       <c r="H62">
-        <v>0.0652518091318514</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05191095435848441</v>
+      </c>
+      <c r="I62">
+        <v>0.1137206820194719</v>
+      </c>
+      <c r="J62">
+        <v>-0.09018909546792946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0452767369803954</v>
+        <v>0.05295210577613865</v>
       </c>
       <c r="C63">
-        <v>-0.01598944788103996</v>
+        <v>-0.02425712571153282</v>
       </c>
       <c r="D63">
-        <v>-0.0001446275191151718</v>
+        <v>-0.004393457467121607</v>
       </c>
       <c r="E63">
-        <v>-0.01217842813040745</v>
+        <v>-0.03030831896169246</v>
       </c>
       <c r="F63">
-        <v>-0.01934872270955786</v>
+        <v>0.005344750547470066</v>
       </c>
       <c r="G63">
-        <v>-0.03018268358829791</v>
+        <v>-0.05944487061645151</v>
       </c>
       <c r="H63">
-        <v>0.1108381296049389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03573159000740939</v>
+      </c>
+      <c r="I63">
+        <v>-0.03507304998883957</v>
+      </c>
+      <c r="J63">
+        <v>-0.09584718918564865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1098404844427655</v>
+        <v>0.1029608946052055</v>
       </c>
       <c r="C64">
-        <v>-0.01241785763150488</v>
+        <v>-0.02308257302760338</v>
       </c>
       <c r="D64">
-        <v>0.015831141148792</v>
+        <v>0.009612015722860918</v>
       </c>
       <c r="E64">
-        <v>0.03455420374093818</v>
+        <v>-0.006444678366937205</v>
       </c>
       <c r="F64">
-        <v>0.00751885524395831</v>
+        <v>0.00885368191073327</v>
       </c>
       <c r="G64">
-        <v>-0.02888143417980437</v>
+        <v>0.04104391433642206</v>
       </c>
       <c r="H64">
-        <v>0.008056854473384801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.05545351855726249</v>
+      </c>
+      <c r="I64">
+        <v>-0.01669106611687776</v>
+      </c>
+      <c r="J64">
+        <v>-0.02253997403345846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1070250777642778</v>
+        <v>0.1150343105745917</v>
       </c>
       <c r="C65">
-        <v>-0.02294421003566099</v>
+        <v>-0.002017227714796792</v>
       </c>
       <c r="D65">
-        <v>-0.004351701386240072</v>
+        <v>-0.009536828953048167</v>
       </c>
       <c r="E65">
-        <v>0.03246583841350294</v>
+        <v>0.01565862741809957</v>
       </c>
       <c r="F65">
-        <v>-0.4436278486523692</v>
+        <v>0.01386256417739704</v>
       </c>
       <c r="G65">
-        <v>0.2444020018849977</v>
+        <v>-0.07695135648566039</v>
       </c>
       <c r="H65">
-        <v>0.5282274821268691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02271570568821164</v>
+      </c>
+      <c r="I65">
+        <v>-0.0487549665115278</v>
+      </c>
+      <c r="J65">
+        <v>0.195103633135633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1524726705215703</v>
+        <v>0.1865353004997213</v>
       </c>
       <c r="C66">
-        <v>-0.05521648767004037</v>
+        <v>-0.1103052067096677</v>
       </c>
       <c r="D66">
-        <v>0.01442906580306843</v>
+        <v>0.04504991136320109</v>
       </c>
       <c r="E66">
-        <v>0.04362776387802941</v>
+        <v>-0.06028890712819764</v>
       </c>
       <c r="F66">
-        <v>0.06918970150823191</v>
+        <v>0.1674764357054387</v>
       </c>
       <c r="G66">
-        <v>-0.2800860611930369</v>
+        <v>-0.02408863428325417</v>
       </c>
       <c r="H66">
-        <v>-0.1675582579342998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1589285022627455</v>
+      </c>
+      <c r="I66">
+        <v>-0.02179267785249584</v>
+      </c>
+      <c r="J66">
+        <v>-0.03508143461513931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1075602034074009</v>
+        <v>0.08602488352852382</v>
       </c>
       <c r="C67">
-        <v>-0.0415958093194234</v>
+        <v>-0.0281212874780824</v>
       </c>
       <c r="D67">
-        <v>-0.01278611770553288</v>
+        <v>-0.005953928948031591</v>
       </c>
       <c r="E67">
-        <v>0.03132596548994453</v>
+        <v>-0.08630363537788242</v>
       </c>
       <c r="F67">
-        <v>0.05636279859192795</v>
+        <v>0.003042865107973319</v>
       </c>
       <c r="G67">
-        <v>-0.04639453598182428</v>
+        <v>0.06723824575268152</v>
       </c>
       <c r="H67">
-        <v>0.01152782422433213</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.05482265355104416</v>
+      </c>
+      <c r="I67">
+        <v>-0.03300175443172438</v>
+      </c>
+      <c r="J67">
+        <v>0.1232566295451876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04247150512762872</v>
+        <v>0.05640470868151343</v>
       </c>
       <c r="C68">
-        <v>0.2937741775813444</v>
+        <v>0.2768535877505692</v>
       </c>
       <c r="D68">
-        <v>0.003503043375496021</v>
+        <v>-0.06816666616062413</v>
       </c>
       <c r="E68">
-        <v>-0.02121759580728994</v>
+        <v>-0.02796115974606591</v>
       </c>
       <c r="F68">
-        <v>-0.02120038229634614</v>
+        <v>0.05893767238592775</v>
       </c>
       <c r="G68">
-        <v>0.02381776443664779</v>
+        <v>-0.03765948121825213</v>
       </c>
       <c r="H68">
-        <v>0.03254663119038403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04265664717101849</v>
+      </c>
+      <c r="I68">
+        <v>-0.04476641688282262</v>
+      </c>
+      <c r="J68">
+        <v>0.006087069416507917</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.04943491964452609</v>
+        <v>0.03786125122878409</v>
       </c>
       <c r="C69">
-        <v>-0.009952226367456716</v>
+        <v>-0.0005980019303187587</v>
       </c>
       <c r="D69">
-        <v>0.004606614643109892</v>
+        <v>-0.01203041376891205</v>
       </c>
       <c r="E69">
-        <v>-0.04093277781923153</v>
+        <v>-0.02190736450206745</v>
       </c>
       <c r="F69">
-        <v>-0.00240946591366601</v>
+        <v>0.003012600346438159</v>
       </c>
       <c r="G69">
-        <v>-0.01054490172074871</v>
+        <v>-0.0002343995364677306</v>
       </c>
       <c r="H69">
-        <v>-0.001593957840776076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0224905645127674</v>
+      </c>
+      <c r="I69">
+        <v>-0.0004271945880453248</v>
+      </c>
+      <c r="J69">
+        <v>-0.01401017437283175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08152957093365351</v>
+        <v>0.04305329455927905</v>
       </c>
       <c r="C70">
-        <v>-0.01073195627167434</v>
+        <v>0.004606034315980475</v>
       </c>
       <c r="D70">
-        <v>-0.03375599023906053</v>
+        <v>-0.02129655576940497</v>
       </c>
       <c r="E70">
-        <v>0.05554134534316757</v>
+        <v>-0.03026685607367193</v>
       </c>
       <c r="F70">
-        <v>0.03977735947391514</v>
+        <v>0.02079447649654771</v>
       </c>
       <c r="G70">
-        <v>0.04209555472887835</v>
+        <v>0.05304689788882854</v>
       </c>
       <c r="H70">
-        <v>0.0004139753694854815</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.007497475060501897</v>
+      </c>
+      <c r="I70">
+        <v>-0.0168358529238402</v>
+      </c>
+      <c r="J70">
+        <v>-0.0882170819517407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.05255524510980723</v>
+        <v>0.0649520003792895</v>
       </c>
       <c r="C71">
-        <v>0.3018314869180446</v>
+        <v>0.2970029484685152</v>
       </c>
       <c r="D71">
-        <v>-0.002863078918661308</v>
+        <v>-0.0740529149545625</v>
       </c>
       <c r="E71">
-        <v>0.006820780595422722</v>
+        <v>-0.02845738555165335</v>
       </c>
       <c r="F71">
-        <v>-0.003719205606943481</v>
+        <v>0.05047243062821439</v>
       </c>
       <c r="G71">
-        <v>-0.004270110909399487</v>
+        <v>-0.01343726138788556</v>
       </c>
       <c r="H71">
-        <v>-0.005068043311251427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05267094586671055</v>
+      </c>
+      <c r="I71">
+        <v>-0.03845898475425295</v>
+      </c>
+      <c r="J71">
+        <v>0.02496908258557009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1283627436769827</v>
+        <v>0.1329780724828112</v>
       </c>
       <c r="C72">
-        <v>0.01163139514770495</v>
+        <v>0.02638444796065003</v>
       </c>
       <c r="D72">
-        <v>-0.07625264308123847</v>
+        <v>0.01254653223219496</v>
       </c>
       <c r="E72">
-        <v>-0.1306476651594106</v>
+        <v>-0.01745472401302009</v>
       </c>
       <c r="F72">
-        <v>-0.001804265378203286</v>
+        <v>0.00400507587108335</v>
       </c>
       <c r="G72">
-        <v>-0.04379908168966672</v>
+        <v>-0.03341844346101369</v>
       </c>
       <c r="H72">
-        <v>0.08280458035974729</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05824885925138878</v>
+      </c>
+      <c r="I72">
+        <v>0.0150600556020593</v>
+      </c>
+      <c r="J72">
+        <v>-0.01223801435021028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2703120070073829</v>
+        <v>0.2294039159717181</v>
       </c>
       <c r="C73">
-        <v>-0.1363316730455691</v>
+        <v>-0.007880558899777661</v>
       </c>
       <c r="D73">
-        <v>-0.1327955736492075</v>
+        <v>0.02949568847700679</v>
       </c>
       <c r="E73">
-        <v>0.08073560460731045</v>
+        <v>0.006901273098966846</v>
       </c>
       <c r="F73">
-        <v>-0.1135928222663911</v>
+        <v>0.04277477722465572</v>
       </c>
       <c r="G73">
-        <v>0.376494374437419</v>
+        <v>0.2538876551038978</v>
       </c>
       <c r="H73">
-        <v>-0.4128460335196158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1880721644087351</v>
+      </c>
+      <c r="I73">
+        <v>0.1972680215383821</v>
+      </c>
+      <c r="J73">
+        <v>0.2622236909736843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1016775038179069</v>
+        <v>0.1126248472145623</v>
       </c>
       <c r="C74">
-        <v>-0.03789214100566506</v>
+        <v>-0.0236527658781572</v>
       </c>
       <c r="D74">
-        <v>0.007609909866553671</v>
+        <v>0.02370827839056106</v>
       </c>
       <c r="E74">
-        <v>-0.01784666838438966</v>
+        <v>-0.01358385482668196</v>
       </c>
       <c r="F74">
-        <v>0.09225274982593638</v>
+        <v>-0.01520731775086159</v>
       </c>
       <c r="G74">
-        <v>0.02935481666733367</v>
+        <v>0.006726864392271204</v>
       </c>
       <c r="H74">
-        <v>0.02312642699362165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.003508504727457154</v>
+      </c>
+      <c r="I74">
+        <v>0.1113234951904311</v>
+      </c>
+      <c r="J74">
+        <v>-0.1003131008454727</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09784855230903269</v>
+        <v>0.1283663931262888</v>
       </c>
       <c r="C75">
-        <v>-0.02123983074282315</v>
+        <v>-0.02885058975091405</v>
       </c>
       <c r="D75">
-        <v>-0.005925018059983896</v>
+        <v>0.02371769319199291</v>
       </c>
       <c r="E75">
-        <v>-0.06867726472181611</v>
+        <v>-0.01400906884259684</v>
       </c>
       <c r="F75">
-        <v>0.0590177282687206</v>
+        <v>-0.01503776979617973</v>
       </c>
       <c r="G75">
-        <v>0.01528169368176057</v>
+        <v>-0.01710883697327698</v>
       </c>
       <c r="H75">
-        <v>0.02201440371659431</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.004232101381740487</v>
+      </c>
+      <c r="I75">
+        <v>0.0329752681098162</v>
+      </c>
+      <c r="J75">
+        <v>-0.08542838245968343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1452365019935541</v>
+        <v>0.04161699825159473</v>
       </c>
       <c r="C76">
-        <v>-0.0336619899657796</v>
+        <v>0.004876268757481173</v>
       </c>
       <c r="D76">
-        <v>0.03863006414410863</v>
+        <v>0.009782698050639114</v>
       </c>
       <c r="E76">
-        <v>-0.04636425752458249</v>
+        <v>-0.02502673371252652</v>
       </c>
       <c r="F76">
-        <v>0.1815093031501755</v>
+        <v>-0.02402210128271328</v>
       </c>
       <c r="G76">
-        <v>0.0318503548860215</v>
+        <v>0.04740070653787388</v>
       </c>
       <c r="H76">
-        <v>0.04093346039322571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.04378722961417923</v>
+      </c>
+      <c r="I76">
+        <v>0.03311917689918039</v>
+      </c>
+      <c r="J76">
+        <v>-0.04898595235716502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07250154337425782</v>
+        <v>0.09028654612271839</v>
       </c>
       <c r="C77">
-        <v>0.01221108421236687</v>
+        <v>-0.07719662104351807</v>
       </c>
       <c r="D77">
-        <v>0.01332386178132876</v>
+        <v>0.0155522536146363</v>
       </c>
       <c r="E77">
-        <v>0.112600198524023</v>
+        <v>0.004834795894793141</v>
       </c>
       <c r="F77">
-        <v>-0.215497601288057</v>
+        <v>0.01419816046649392</v>
       </c>
       <c r="G77">
-        <v>-0.08632970466446604</v>
+        <v>-0.001813408460404326</v>
       </c>
       <c r="H77">
-        <v>-0.2622532764919036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.0791060180068546</v>
+      </c>
+      <c r="I77">
+        <v>-0.1770414735277971</v>
+      </c>
+      <c r="J77">
+        <v>0.1677480730492443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2301657389808545</v>
+        <v>0.1506827765226302</v>
       </c>
       <c r="C78">
-        <v>-0.04076427922208229</v>
+        <v>-0.0271142370479723</v>
       </c>
       <c r="D78">
-        <v>0.1581802783878526</v>
+        <v>0.1470125046918524</v>
       </c>
       <c r="E78">
-        <v>0.09721582880612295</v>
+        <v>-0.2516441446923107</v>
       </c>
       <c r="F78">
-        <v>-0.1001125090633735</v>
+        <v>-0.3229368438604889</v>
       </c>
       <c r="G78">
-        <v>-0.1850629827804295</v>
+        <v>-0.05753598475359083</v>
       </c>
       <c r="H78">
-        <v>0.1022357644784076</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4870333350278562</v>
+      </c>
+      <c r="I78">
+        <v>-0.6620908515376875</v>
+      </c>
+      <c r="J78">
+        <v>-0.08236261962714969</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1404738941051009</v>
+        <v>0.1442590784096804</v>
       </c>
       <c r="C79">
-        <v>-0.01333969298732777</v>
+        <v>-0.02073296111564321</v>
       </c>
       <c r="D79">
-        <v>-0.006435606057839291</v>
+        <v>0.04251947774391088</v>
       </c>
       <c r="E79">
-        <v>-0.05325608761899486</v>
+        <v>0.005512055316551565</v>
       </c>
       <c r="F79">
-        <v>0.07362235515311844</v>
+        <v>-0.01443047076712726</v>
       </c>
       <c r="G79">
-        <v>-0.01806094215035184</v>
+        <v>0.02186348422381683</v>
       </c>
       <c r="H79">
-        <v>0.0672088728704852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.01289804530435269</v>
+      </c>
+      <c r="I79">
+        <v>0.1080054293886763</v>
+      </c>
+      <c r="J79">
+        <v>-0.09489629876928937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04354645793453875</v>
+        <v>0.0815034587955034</v>
       </c>
       <c r="C80">
-        <v>0.01060739599550771</v>
+        <v>-0.04649012139867117</v>
       </c>
       <c r="D80">
-        <v>-0.1064468824154499</v>
+        <v>-0.01470188832999778</v>
       </c>
       <c r="E80">
-        <v>0.04501938319478971</v>
+        <v>-0.03525357935309097</v>
       </c>
       <c r="F80">
-        <v>-0.04120515754833525</v>
+        <v>0.0491506330342644</v>
       </c>
       <c r="G80">
-        <v>-0.01780766833897503</v>
+        <v>-0.006691730918427598</v>
       </c>
       <c r="H80">
-        <v>0.119066250657602</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.02525642103669467</v>
+      </c>
+      <c r="I80">
+        <v>-0.03511968622951807</v>
+      </c>
+      <c r="J80">
+        <v>-0.1283740521598876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1091366629943512</v>
+        <v>0.1480440328523091</v>
       </c>
       <c r="C81">
-        <v>-0.005445002036652263</v>
+        <v>-0.0375680960623337</v>
       </c>
       <c r="D81">
-        <v>0.004266768933237639</v>
+        <v>0.02928317857943118</v>
       </c>
       <c r="E81">
-        <v>-0.02586360031484414</v>
+        <v>-0.02465435854259366</v>
       </c>
       <c r="F81">
-        <v>0.1092949448149771</v>
+        <v>-0.02264280217705807</v>
       </c>
       <c r="G81">
-        <v>-0.02563112496474333</v>
+        <v>0.003741103507718384</v>
       </c>
       <c r="H81">
-        <v>0.03845026796018394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01230483687439663</v>
+      </c>
+      <c r="I81">
+        <v>0.02664570251675926</v>
+      </c>
+      <c r="J81">
+        <v>-0.1395706470314067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1185763726621934</v>
+        <v>0.1640628556432756</v>
       </c>
       <c r="C82">
-        <v>-0.02493361971993075</v>
+        <v>-0.04726123443800131</v>
       </c>
       <c r="D82">
-        <v>-0.0235842937399875</v>
+        <v>-0.007381320129430081</v>
       </c>
       <c r="E82">
-        <v>0.02569750214336095</v>
+        <v>0.0006509252767948702</v>
       </c>
       <c r="F82">
-        <v>0.2127738498722246</v>
+        <v>0.004170211074090878</v>
       </c>
       <c r="G82">
-        <v>-0.02310671598583047</v>
+        <v>0.0544957490582017</v>
       </c>
       <c r="H82">
-        <v>0.07444829073344743</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.04111071700918184</v>
+      </c>
+      <c r="I82">
+        <v>0.1467488398293131</v>
+      </c>
+      <c r="J82">
+        <v>-0.1828094123775577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1109775409167629</v>
+        <v>0.09010532962802148</v>
       </c>
       <c r="C83">
-        <v>-0.04684387509466151</v>
+        <v>-0.03170810247123972</v>
       </c>
       <c r="D83">
-        <v>-0.03284022621431829</v>
+        <v>-5.756145429729305e-05</v>
       </c>
       <c r="E83">
-        <v>0.08843130749116528</v>
+        <v>0.04844442837442338</v>
       </c>
       <c r="F83">
-        <v>-0.03144071675455315</v>
+        <v>-0.04212665698100738</v>
       </c>
       <c r="G83">
-        <v>-0.06051723227429492</v>
+        <v>-0.05664424044381815</v>
       </c>
       <c r="H83">
-        <v>-0.0602791811893764</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.04638560603810506</v>
+      </c>
+      <c r="I83">
+        <v>-0.07353268990866187</v>
+      </c>
+      <c r="J83">
+        <v>-0.1151297492817869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04978819360868138</v>
+        <v>0.06625293279594599</v>
       </c>
       <c r="C84">
-        <v>-0.02834787674375573</v>
+        <v>-0.01979646958617918</v>
       </c>
       <c r="D84">
-        <v>0.01108685032097172</v>
+        <v>-0.001401903664650996</v>
       </c>
       <c r="E84">
-        <v>-0.04364093964029217</v>
+        <v>0.02042051400261502</v>
       </c>
       <c r="F84">
-        <v>0.06000416742093881</v>
+        <v>0.08331124082058161</v>
       </c>
       <c r="G84">
-        <v>-0.004207857817924406</v>
+        <v>0.02472685185288535</v>
       </c>
       <c r="H84">
-        <v>0.05715041822681648</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.08719656187156379</v>
+      </c>
+      <c r="I84">
+        <v>-0.09579339863848754</v>
+      </c>
+      <c r="J84">
+        <v>0.1464564900263856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1119365870670878</v>
+        <v>0.1239365940255873</v>
       </c>
       <c r="C85">
-        <v>-0.0173456529475043</v>
+        <v>-0.01114138940674173</v>
       </c>
       <c r="D85">
-        <v>0.0005623323319862767</v>
+        <v>0.01285259638785902</v>
       </c>
       <c r="E85">
-        <v>-0.07539289527392015</v>
+        <v>-0.0005054275345654623</v>
       </c>
       <c r="F85">
-        <v>0.103754237818216</v>
+        <v>-0.01635616836630559</v>
       </c>
       <c r="G85">
-        <v>-0.04143701480832215</v>
+        <v>0.02114495432460112</v>
       </c>
       <c r="H85">
-        <v>0.09609235217605913</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.01117740161722403</v>
+      </c>
+      <c r="I85">
+        <v>0.06664919531904305</v>
+      </c>
+      <c r="J85">
+        <v>-0.08642897506728363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06405266207632505</v>
+        <v>0.108162803774596</v>
       </c>
       <c r="C86">
-        <v>-0.02344509080766401</v>
+        <v>0.08097983950545987</v>
       </c>
       <c r="D86">
-        <v>0.02740836338157228</v>
+        <v>0.325874181199045</v>
       </c>
       <c r="E86">
-        <v>0.1079133494908681</v>
+        <v>0.8603629487126205</v>
       </c>
       <c r="F86">
-        <v>0.04654835343158369</v>
+        <v>-0.1540108301696913</v>
       </c>
       <c r="G86">
-        <v>0.06154417485604558</v>
+        <v>-0.1220383131645508</v>
       </c>
       <c r="H86">
-        <v>0.2011320549007222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.09674917664315978</v>
+      </c>
+      <c r="I86">
+        <v>-0.1766742389883481</v>
+      </c>
+      <c r="J86">
+        <v>-0.03122836103421654</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1129768379839653</v>
+        <v>0.1152255824819428</v>
       </c>
       <c r="C87">
-        <v>-0.04993921256159403</v>
+        <v>-0.08943343924791436</v>
       </c>
       <c r="D87">
-        <v>0.02795011774110069</v>
+        <v>-0.05963941229334106</v>
       </c>
       <c r="E87">
-        <v>0.03110627089843712</v>
+        <v>0.0120325030872756</v>
       </c>
       <c r="F87">
-        <v>-0.07289202639176001</v>
+        <v>0.001598695198148274</v>
       </c>
       <c r="G87">
-        <v>-0.1279491205623888</v>
+        <v>0.01180325719937686</v>
       </c>
       <c r="H87">
-        <v>0.02982899221960651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.07643446703267</v>
+      </c>
+      <c r="I87">
+        <v>-0.1791635729528963</v>
+      </c>
+      <c r="J87">
+        <v>0.0645111128938906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07384468925516938</v>
+        <v>0.05661773091990196</v>
       </c>
       <c r="C88">
-        <v>-0.04337971009275526</v>
+        <v>-0.02725281255642249</v>
       </c>
       <c r="D88">
-        <v>0.007834285355084642</v>
+        <v>0.02639338321049715</v>
       </c>
       <c r="E88">
-        <v>0.02536068310031762</v>
+        <v>-0.03457944071856354</v>
       </c>
       <c r="F88">
-        <v>0.01736696785729165</v>
+        <v>0.05421859248863182</v>
       </c>
       <c r="G88">
-        <v>-0.05397266860276578</v>
+        <v>0.009372627720990316</v>
       </c>
       <c r="H88">
-        <v>0.01798990095426433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.007467650413535014</v>
+      </c>
+      <c r="I88">
+        <v>-0.03139941339164183</v>
+      </c>
+      <c r="J88">
+        <v>-0.06035568481998829</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09381542882041718</v>
+        <v>0.1041672543986832</v>
       </c>
       <c r="C89">
-        <v>0.3859823731716577</v>
+        <v>0.3688520338034465</v>
       </c>
       <c r="D89">
-        <v>0.0127523699418039</v>
+        <v>-0.0873097980341583</v>
       </c>
       <c r="E89">
-        <v>0.05186257128317952</v>
+        <v>-0.01354146928276951</v>
       </c>
       <c r="F89">
-        <v>-0.007728588849099614</v>
+        <v>-0.004351417023382575</v>
       </c>
       <c r="G89">
-        <v>0.006916030694092935</v>
+        <v>0.03254805932823974</v>
       </c>
       <c r="H89">
-        <v>-0.03070410772082201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03038789729290454</v>
+      </c>
+      <c r="I89">
+        <v>-0.04308574523519949</v>
+      </c>
+      <c r="J89">
+        <v>-0.02162240073666163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07259642010298357</v>
+        <v>0.07337861980563631</v>
       </c>
       <c r="C90">
-        <v>0.3018279096160852</v>
+        <v>0.3037209793184846</v>
       </c>
       <c r="D90">
-        <v>0.02771755226714951</v>
+        <v>-0.07046765803028106</v>
       </c>
       <c r="E90">
-        <v>0.01479401840422659</v>
+        <v>-0.01281227345654996</v>
       </c>
       <c r="F90">
-        <v>0.007939180948446603</v>
+        <v>0.06035414453939333</v>
       </c>
       <c r="G90">
-        <v>-0.02585229873415517</v>
+        <v>-0.000426624429363013</v>
       </c>
       <c r="H90">
-        <v>-0.04334302110477058</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06265400522646768</v>
+      </c>
+      <c r="I90">
+        <v>-0.01969432057975474</v>
+      </c>
+      <c r="J90">
+        <v>0.02004889050537282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08396953120807556</v>
+        <v>0.09373378883240391</v>
       </c>
       <c r="C91">
-        <v>-0.03180901986955981</v>
+        <v>-0.02085842412958458</v>
       </c>
       <c r="D91">
-        <v>0.005418497516339715</v>
+        <v>0.02073730504671224</v>
       </c>
       <c r="E91">
-        <v>-0.01361424700460835</v>
+        <v>0.008010026406976579</v>
       </c>
       <c r="F91">
-        <v>0.04216051051734912</v>
+        <v>-0.01998272219881553</v>
       </c>
       <c r="G91">
-        <v>0.03359223179781868</v>
+        <v>0.02103858748323167</v>
       </c>
       <c r="H91">
-        <v>-0.006359745470593688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.009000437713197687</v>
+      </c>
+      <c r="I91">
+        <v>0.03515791496949502</v>
+      </c>
+      <c r="J91">
+        <v>-0.06723009512567581</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06832940844116921</v>
+        <v>0.08679168018069958</v>
       </c>
       <c r="C92">
-        <v>0.3606526019236497</v>
+        <v>0.3341565891795841</v>
       </c>
       <c r="D92">
-        <v>0.0227211480487213</v>
+        <v>-0.09907224943357672</v>
       </c>
       <c r="E92">
-        <v>0.02298407257618469</v>
+        <v>-0.003490791161701636</v>
       </c>
       <c r="F92">
-        <v>-0.05654398112058156</v>
+        <v>0.006097140909636473</v>
       </c>
       <c r="G92">
-        <v>0.01112148896334599</v>
+        <v>-0.02816318801173348</v>
       </c>
       <c r="H92">
-        <v>-0.02691992918263956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06264246944870323</v>
+      </c>
+      <c r="I92">
+        <v>-0.02354203802460299</v>
+      </c>
+      <c r="J92">
+        <v>-0.06343187769146398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08604812388722514</v>
+        <v>0.08131655255373922</v>
       </c>
       <c r="C93">
-        <v>0.3143697343313061</v>
+        <v>0.3285519193307123</v>
       </c>
       <c r="D93">
-        <v>-0.01546115283497205</v>
+        <v>-0.07439449837272241</v>
       </c>
       <c r="E93">
-        <v>0.007423327118680468</v>
+        <v>-0.005608198269213596</v>
       </c>
       <c r="F93">
-        <v>-0.02148041145215182</v>
+        <v>0.06157846914694076</v>
       </c>
       <c r="G93">
-        <v>0.02902684116414209</v>
+        <v>0.002585190843328074</v>
       </c>
       <c r="H93">
-        <v>0.002779382137438254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03557704267662416</v>
+      </c>
+      <c r="I93">
+        <v>-0.03881671331136802</v>
+      </c>
+      <c r="J93">
+        <v>-0.01060973192300129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09936482106765059</v>
+        <v>0.1485623792254506</v>
       </c>
       <c r="C94">
-        <v>-0.04744847159685938</v>
+        <v>-0.03284082564854585</v>
       </c>
       <c r="D94">
-        <v>0.01315022453235414</v>
+        <v>0.02407013251182585</v>
       </c>
       <c r="E94">
-        <v>-0.03055237190163405</v>
+        <v>-0.05056397839678942</v>
       </c>
       <c r="F94">
-        <v>0.08028721650968555</v>
+        <v>-0.02683850320442618</v>
       </c>
       <c r="G94">
-        <v>0.02311259884639704</v>
+        <v>0.01010639281165478</v>
       </c>
       <c r="H94">
-        <v>0.03735041732320146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.0005049635446206244</v>
+      </c>
+      <c r="I94">
+        <v>0.04411268352826436</v>
+      </c>
+      <c r="J94">
+        <v>-0.05455702168247721</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1294486637229259</v>
+        <v>0.1298224906019597</v>
       </c>
       <c r="C95">
-        <v>-0.06222342681996246</v>
+        <v>-0.04269706450924875</v>
       </c>
       <c r="D95">
-        <v>0.07017096482727771</v>
+        <v>0.03412495080418151</v>
       </c>
       <c r="E95">
-        <v>0.07324480323897899</v>
+        <v>-0.0441539928344916</v>
       </c>
       <c r="F95">
-        <v>-0.1648955828593337</v>
+        <v>0.01408075729330764</v>
       </c>
       <c r="G95">
-        <v>-0.06866517764014912</v>
+        <v>0.01712301889401623</v>
       </c>
       <c r="H95">
-        <v>0.03970888190678264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1106645897915952</v>
+      </c>
+      <c r="I95">
+        <v>-0.1281934112971127</v>
+      </c>
+      <c r="J95">
+        <v>0.1068853165760191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01211628502553611</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0001601804607176241</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.00254791334456032</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.003485954207375352</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.00287997412753412</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.009323523018274256</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0005087607088568926</v>
+      </c>
+      <c r="I96">
+        <v>-0.02272187048194645</v>
+      </c>
+      <c r="J96">
+        <v>0.01045618355189776</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1447299422756692</v>
+        <v>0.1734141921422041</v>
       </c>
       <c r="C97">
-        <v>0.04160615834415906</v>
+        <v>0.01834895923120434</v>
       </c>
       <c r="D97">
-        <v>-0.1352215083352767</v>
+        <v>0.04976806828401117</v>
       </c>
       <c r="E97">
-        <v>-0.8763096826282816</v>
+        <v>-0.09804791980106968</v>
       </c>
       <c r="F97">
-        <v>-0.1798069356489788</v>
+        <v>-0.05424482381287622</v>
       </c>
       <c r="G97">
-        <v>-0.07112629147914114</v>
+        <v>-0.8618567690464943</v>
       </c>
       <c r="H97">
-        <v>-0.03621471067953409</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1641162411981735</v>
+      </c>
+      <c r="I97">
+        <v>0.2818136336409962</v>
+      </c>
+      <c r="J97">
+        <v>0.1728515155050448</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3196251108676274</v>
+        <v>0.2478831882304292</v>
       </c>
       <c r="C98">
-        <v>-0.06729677577966504</v>
+        <v>0.005716257189383157</v>
       </c>
       <c r="D98">
-        <v>-0.1783077539096378</v>
+        <v>-0.06066502606911182</v>
       </c>
       <c r="E98">
-        <v>0.1223011317292084</v>
+        <v>0.1405990160052486</v>
       </c>
       <c r="F98">
-        <v>0.0458233253128396</v>
+        <v>-0.1550187727761564</v>
       </c>
       <c r="G98">
-        <v>0.2256692016296948</v>
+        <v>0.1627526241070471</v>
       </c>
       <c r="H98">
-        <v>-0.1322622936144915</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3531047027257149</v>
+      </c>
+      <c r="I98">
+        <v>0.2482761130480929</v>
+      </c>
+      <c r="J98">
+        <v>-0.2726945102761923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08814147185111662</v>
+        <v>0.05740243987708898</v>
       </c>
       <c r="C99">
-        <v>-0.01854456508573605</v>
+        <v>0.005532593506115611</v>
       </c>
       <c r="D99">
-        <v>0.01191982164825564</v>
+        <v>0.0211790197894937</v>
       </c>
       <c r="E99">
-        <v>-0.001484374643782851</v>
+        <v>-0.04230210088552139</v>
       </c>
       <c r="F99">
-        <v>0.01909992202586125</v>
+        <v>0.009044029311045292</v>
       </c>
       <c r="G99">
-        <v>-0.006716236210434268</v>
+        <v>0.01366778325848728</v>
       </c>
       <c r="H99">
-        <v>-0.07608954698821414</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02956920641385728</v>
+      </c>
+      <c r="I99">
+        <v>0.01430447643006653</v>
+      </c>
+      <c r="J99">
+        <v>0.003786691479549787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.09314215484793613</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2193907954695692</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8830121132574649</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2551811005253435</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.09144895392219302</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.1001935501328616</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.03511358718144316</v>
+      </c>
+      <c r="I100">
+        <v>-0.1376866855508237</v>
+      </c>
+      <c r="J100">
+        <v>-0.0002342016457673085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05815832992478225</v>
+        <v>0.03770611409886496</v>
       </c>
       <c r="C101">
-        <v>0.001508568681590278</v>
+        <v>-0.005523559976843027</v>
       </c>
       <c r="D101">
-        <v>0.03918330975314481</v>
+        <v>-0.005746919143528399</v>
       </c>
       <c r="E101">
-        <v>0.02996743747396615</v>
+        <v>-0.0100208317223295</v>
       </c>
       <c r="F101">
-        <v>0.01064650598720732</v>
+        <v>0.02276959549531531</v>
       </c>
       <c r="G101">
-        <v>-0.04556084958720975</v>
+        <v>0.008443724894975765</v>
       </c>
       <c r="H101">
-        <v>0.1032900130772598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.060535670477779</v>
+      </c>
+      <c r="I101">
+        <v>-0.01575722433139428</v>
+      </c>
+      <c r="J101">
+        <v>-0.1163849471441738</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
